--- a/AI - Assignment 1/data p1=0.4_N=8_D=8.xlsx
+++ b/AI - Assignment 1/data p1=0.4_N=8_D=8.xlsx
@@ -452,89 +452,89 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>979.1999999999999</v>
+        <v>905.5999999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>906.3999999999999</v>
+        <v>1185.6</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.2</v>
+        <v>1372.8</v>
       </c>
       <c r="D2" t="n">
-        <v>2178.4</v>
+        <v>4199.2</v>
       </c>
       <c r="E2" t="n">
-        <v>4904</v>
+        <v>5156.799999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>3460.8</v>
+        <v>5762.4</v>
       </c>
       <c r="G2" t="n">
-        <v>49131.2</v>
+        <v>30749.6</v>
       </c>
       <c r="H2" t="n">
-        <v>75957.60000000001</v>
+        <v>68476.00000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>323690.4</v>
+        <v>569553.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1078</v>
+        <v>2850.099999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>684.6</v>
+        <v>3014.1</v>
       </c>
       <c r="C3" t="n">
-        <v>874.1000000000001</v>
+        <v>2828.6</v>
       </c>
       <c r="D3" t="n">
-        <v>913.4999999999999</v>
+        <v>3452.7</v>
       </c>
       <c r="E3" t="n">
-        <v>823.1</v>
+        <v>4104.5</v>
       </c>
       <c r="F3" t="n">
-        <v>817.6999999999999</v>
+        <v>3864.7</v>
       </c>
       <c r="G3" t="n">
-        <v>1294.5</v>
+        <v>9570.700000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1066.4</v>
+        <v>17086.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1382.5</v>
+        <v>43823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>500.1000000000001</v>
+        <v>565.9</v>
       </c>
       <c r="B4" t="n">
-        <v>561.9000000000001</v>
+        <v>500</v>
       </c>
       <c r="C4" t="n">
-        <v>615</v>
+        <v>664.6000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>4118</v>
+        <v>981.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1143.2</v>
+        <v>5557.299999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>2047.1</v>
+        <v>6248.6</v>
       </c>
       <c r="G4" t="n">
-        <v>34296.60000000001</v>
+        <v>17064.9</v>
       </c>
       <c r="H4" t="n">
-        <v>30337.90000000001</v>
+        <v>35258.3</v>
       </c>
       <c r="I4" t="n">
-        <v>110740.4</v>
+        <v>70822.39999999999</v>
       </c>
     </row>
   </sheetData>
